--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Spp1-Cd44.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Spp1-Cd44.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Cd44</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>20.7803504010484</v>
+        <v>1.414043</v>
       </c>
       <c r="H2">
-        <v>20.7803504010484</v>
+        <v>4.242129</v>
       </c>
       <c r="I2">
-        <v>0.009373350257706563</v>
+        <v>0.0006049102259513945</v>
       </c>
       <c r="J2">
-        <v>0.009373350257706563</v>
+        <v>0.0006049102259513945</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.27821416682553</v>
+        <v>10.45505566666667</v>
       </c>
       <c r="N2">
-        <v>8.27821416682553</v>
+        <v>31.365167</v>
       </c>
       <c r="O2">
-        <v>0.007064973537541828</v>
+        <v>0.008202258778219224</v>
       </c>
       <c r="P2">
-        <v>0.007064973537541828</v>
+        <v>0.008202258778219226</v>
       </c>
       <c r="Q2">
-        <v>172.0241910815574</v>
+        <v>14.78389828006033</v>
       </c>
       <c r="R2">
-        <v>172.0241910815574</v>
+        <v>133.055084520543</v>
       </c>
       <c r="S2">
-        <v>6.622247152880774E-05</v>
+        <v>4.9616302108444E-06</v>
       </c>
       <c r="T2">
-        <v>6.622247152880774E-05</v>
+        <v>4.961630210844401E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>20.7803504010484</v>
+        <v>1.414043</v>
       </c>
       <c r="H3">
-        <v>20.7803504010484</v>
+        <v>4.242129</v>
       </c>
       <c r="I3">
-        <v>0.009373350257706563</v>
+        <v>0.0006049102259513945</v>
       </c>
       <c r="J3">
-        <v>0.009373350257706563</v>
+        <v>0.0006049102259513945</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>164.108091289101</v>
+        <v>167.4277343333333</v>
       </c>
       <c r="N3">
-        <v>164.108091289101</v>
+        <v>502.283203</v>
       </c>
       <c r="O3">
-        <v>0.1400566956699796</v>
+        <v>0.1313513430666197</v>
       </c>
       <c r="P3">
-        <v>0.1400566956699796</v>
+        <v>0.1313513430666197</v>
       </c>
       <c r="Q3">
-        <v>3410.223640634757</v>
+        <v>236.7500157399097</v>
       </c>
       <c r="R3">
-        <v>3410.223640634757</v>
+        <v>2130.750141659187</v>
       </c>
       <c r="S3">
-        <v>0.001312800464451733</v>
+        <v>7.945577061344804E-05</v>
       </c>
       <c r="T3">
-        <v>0.001312800464451733</v>
+        <v>7.945577061344807E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>20.7803504010484</v>
+        <v>1.414043</v>
       </c>
       <c r="H4">
-        <v>20.7803504010484</v>
+        <v>4.242129</v>
       </c>
       <c r="I4">
-        <v>0.009373350257706563</v>
+        <v>0.0006049102259513945</v>
       </c>
       <c r="J4">
-        <v>0.009373350257706563</v>
+        <v>0.0006049102259513945</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>151.920568160173</v>
+        <v>227.495678</v>
       </c>
       <c r="N4">
-        <v>151.920568160173</v>
+        <v>682.487034</v>
       </c>
       <c r="O4">
-        <v>0.1296553546731359</v>
+        <v>0.1784761823728629</v>
       </c>
       <c r="P4">
-        <v>0.1296553546731359</v>
+        <v>0.1784761823728629</v>
       </c>
       <c r="Q4">
-        <v>3156.962639494751</v>
+        <v>321.688671006154</v>
       </c>
       <c r="R4">
-        <v>3156.962639494751</v>
+        <v>2895.198039055386</v>
       </c>
       <c r="S4">
-        <v>0.001215305052138474</v>
+        <v>0.0001079620678061108</v>
       </c>
       <c r="T4">
-        <v>0.001215305052138474</v>
+        <v>0.0001079620678061108</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>20.7803504010484</v>
+        <v>1.414043</v>
       </c>
       <c r="H5">
-        <v>20.7803504010484</v>
+        <v>4.242129</v>
       </c>
       <c r="I5">
-        <v>0.009373350257706563</v>
+        <v>0.0006049102259513945</v>
       </c>
       <c r="J5">
-        <v>0.009373350257706563</v>
+        <v>0.0006049102259513945</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>145.637165001401</v>
+        <v>147.9815903333333</v>
       </c>
       <c r="N5">
-        <v>145.637165001401</v>
+        <v>443.9447709999999</v>
       </c>
       <c r="O5">
-        <v>0.1242928361216916</v>
+        <v>0.1160953453549051</v>
       </c>
       <c r="P5">
-        <v>0.1242928361216916</v>
+        <v>0.1160953453549051</v>
       </c>
       <c r="Q5">
-        <v>3026.391320144415</v>
+        <v>209.2523319397177</v>
       </c>
       <c r="R5">
-        <v>3026.391320144415</v>
+        <v>1883.270987457459</v>
       </c>
       <c r="S5">
-        <v>0.001165040287492337</v>
+        <v>7.022726159054082E-05</v>
       </c>
       <c r="T5">
-        <v>0.001165040287492337</v>
+        <v>7.022726159054083E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>20.7803504010484</v>
+        <v>1.414043</v>
       </c>
       <c r="H6">
-        <v>20.7803504010484</v>
+        <v>4.242129</v>
       </c>
       <c r="I6">
-        <v>0.009373350257706563</v>
+        <v>0.0006049102259513945</v>
       </c>
       <c r="J6">
-        <v>0.009373350257706563</v>
+        <v>0.0006049102259513945</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>648.665112207224</v>
+        <v>665.7853396666667</v>
       </c>
       <c r="N6">
-        <v>648.665112207224</v>
+        <v>1997.356019</v>
       </c>
       <c r="O6">
-        <v>0.5535978847751916</v>
+        <v>0.5223256404173379</v>
       </c>
       <c r="P6">
-        <v>0.5535978847751916</v>
+        <v>0.522325640417338</v>
       </c>
       <c r="Q6">
-        <v>13479.48832460149</v>
+        <v>941.4490990582725</v>
       </c>
       <c r="R6">
-        <v>13479.48832460149</v>
+        <v>8473.041891524452</v>
       </c>
       <c r="S6">
-        <v>0.00518906687592335</v>
+        <v>0.0003159601211650587</v>
       </c>
       <c r="T6">
-        <v>0.00518906687592335</v>
+        <v>0.0003159601211650587</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>20.7803504010484</v>
+        <v>1.414043</v>
       </c>
       <c r="H7">
-        <v>20.7803504010484</v>
+        <v>4.242129</v>
       </c>
       <c r="I7">
-        <v>0.009373350257706563</v>
+        <v>0.0006049102259513945</v>
       </c>
       <c r="J7">
-        <v>0.009373350257706563</v>
+        <v>0.0006049102259513945</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>53.1169883938852</v>
+        <v>55.51027300000001</v>
       </c>
       <c r="N7">
-        <v>53.1169883938852</v>
+        <v>166.530819</v>
       </c>
       <c r="O7">
-        <v>0.04533225522245957</v>
+        <v>0.043549230010055</v>
       </c>
       <c r="P7">
-        <v>0.04533225522245957</v>
+        <v>0.04354923001005501</v>
       </c>
       <c r="Q7">
-        <v>1103.789631073355</v>
+        <v>78.49391296373902</v>
       </c>
       <c r="R7">
-        <v>1103.789631073355</v>
+        <v>706.4452166736511</v>
       </c>
       <c r="S7">
-        <v>0.0004249151061718611</v>
+        <v>2.634337456539162E-05</v>
       </c>
       <c r="T7">
-        <v>0.0004249151061718611</v>
+        <v>2.634337456539162E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>880.664880322459</v>
+        <v>22.694015</v>
       </c>
       <c r="H8">
-        <v>880.664880322459</v>
+        <v>68.08204499999999</v>
       </c>
       <c r="I8">
-        <v>0.3972397107657614</v>
+        <v>0.009708220854241584</v>
       </c>
       <c r="J8">
-        <v>0.3972397107657614</v>
+        <v>0.009708220854241585</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.27821416682553</v>
+        <v>10.45505566666667</v>
       </c>
       <c r="N8">
-        <v>8.27821416682553</v>
+        <v>31.365167</v>
       </c>
       <c r="O8">
-        <v>0.007064973537541828</v>
+        <v>0.008202258778219224</v>
       </c>
       <c r="P8">
-        <v>0.007064973537541828</v>
+        <v>0.008202258778219226</v>
       </c>
       <c r="Q8">
-        <v>7290.33248851109</v>
+        <v>237.2671901251683</v>
       </c>
       <c r="R8">
-        <v>7290.33248851109</v>
+        <v>2135.404711126515</v>
       </c>
       <c r="S8">
-        <v>0.002806488044620874</v>
+        <v>7.962933972259396E-05</v>
       </c>
       <c r="T8">
-        <v>0.002806488044620874</v>
+        <v>7.962933972259399E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>880.664880322459</v>
+        <v>22.694015</v>
       </c>
       <c r="H9">
-        <v>880.664880322459</v>
+        <v>68.08204499999999</v>
       </c>
       <c r="I9">
-        <v>0.3972397107657614</v>
+        <v>0.009708220854241584</v>
       </c>
       <c r="J9">
-        <v>0.3972397107657614</v>
+        <v>0.009708220854241585</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>164.108091289101</v>
+        <v>167.4277343333333</v>
       </c>
       <c r="N9">
-        <v>164.108091289101</v>
+        <v>502.283203</v>
       </c>
       <c r="O9">
-        <v>0.1400566956699796</v>
+        <v>0.1313513430666197</v>
       </c>
       <c r="P9">
-        <v>0.1400566956699796</v>
+        <v>0.1313513430666197</v>
       </c>
       <c r="Q9">
-        <v>144524.2325750633</v>
+        <v>3799.607514376682</v>
       </c>
       <c r="R9">
-        <v>144524.2325750633</v>
+        <v>34196.46762939014</v>
       </c>
       <c r="S9">
-        <v>0.05563608127875098</v>
+        <v>0.001275187847991998</v>
       </c>
       <c r="T9">
-        <v>0.05563608127875098</v>
+        <v>0.001275187847991998</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>880.664880322459</v>
+        <v>22.694015</v>
       </c>
       <c r="H10">
-        <v>880.664880322459</v>
+        <v>68.08204499999999</v>
       </c>
       <c r="I10">
-        <v>0.3972397107657614</v>
+        <v>0.009708220854241584</v>
       </c>
       <c r="J10">
-        <v>0.3972397107657614</v>
+        <v>0.009708220854241585</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>151.920568160173</v>
+        <v>227.495678</v>
       </c>
       <c r="N10">
-        <v>151.920568160173</v>
+        <v>682.487034</v>
       </c>
       <c r="O10">
-        <v>0.1296553546731359</v>
+        <v>0.1784761823728629</v>
       </c>
       <c r="P10">
-        <v>0.1296553546731359</v>
+        <v>0.1784761823728629</v>
       </c>
       <c r="Q10">
-        <v>133791.1089772987</v>
+        <v>5162.790328967169</v>
       </c>
       <c r="R10">
-        <v>133791.1089772987</v>
+        <v>46465.11296070452</v>
       </c>
       <c r="S10">
-        <v>0.0515042555895887</v>
+        <v>0.001732686195697652</v>
       </c>
       <c r="T10">
-        <v>0.0515042555895887</v>
+        <v>0.001732686195697653</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>880.664880322459</v>
+        <v>22.694015</v>
       </c>
       <c r="H11">
-        <v>880.664880322459</v>
+        <v>68.08204499999999</v>
       </c>
       <c r="I11">
-        <v>0.3972397107657614</v>
+        <v>0.009708220854241584</v>
       </c>
       <c r="J11">
-        <v>0.3972397107657614</v>
+        <v>0.009708220854241585</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>145.637165001401</v>
+        <v>147.9815903333333</v>
       </c>
       <c r="N11">
-        <v>145.637165001401</v>
+        <v>443.9447709999999</v>
       </c>
       <c r="O11">
-        <v>0.1242928361216916</v>
+        <v>0.1160953453549051</v>
       </c>
       <c r="P11">
-        <v>0.1242928361216916</v>
+        <v>0.1160953453549051</v>
       </c>
       <c r="Q11">
-        <v>128257.536486461</v>
+        <v>3358.296430748521</v>
       </c>
       <c r="R11">
-        <v>128257.536486461</v>
+        <v>30224.66787673669</v>
       </c>
       <c r="S11">
-        <v>0.04937405027123694</v>
+        <v>0.001127079252854868</v>
       </c>
       <c r="T11">
-        <v>0.04937405027123694</v>
+        <v>0.001127079252854869</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>880.664880322459</v>
+        <v>22.694015</v>
       </c>
       <c r="H12">
-        <v>880.664880322459</v>
+        <v>68.08204499999999</v>
       </c>
       <c r="I12">
-        <v>0.3972397107657614</v>
+        <v>0.009708220854241584</v>
       </c>
       <c r="J12">
-        <v>0.3972397107657614</v>
+        <v>0.009708220854241585</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>648.665112207224</v>
+        <v>665.7853396666667</v>
       </c>
       <c r="N12">
-        <v>648.665112207224</v>
+        <v>1997.356019</v>
       </c>
       <c r="O12">
-        <v>0.5535978847751916</v>
+        <v>0.5223256404173379</v>
       </c>
       <c r="P12">
-        <v>0.5535978847751916</v>
+        <v>0.522325640417338</v>
       </c>
       <c r="Q12">
-        <v>571256.5834113293</v>
+        <v>15109.34248517543</v>
       </c>
       <c r="R12">
-        <v>571256.5834113293</v>
+        <v>135984.0823665788</v>
       </c>
       <c r="S12">
-        <v>0.2199110636286344</v>
+        <v>0.00507085267500469</v>
       </c>
       <c r="T12">
-        <v>0.2199110636286344</v>
+        <v>0.005070852675004692</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>880.664880322459</v>
+        <v>22.694015</v>
       </c>
       <c r="H13">
-        <v>880.664880322459</v>
+        <v>68.08204499999999</v>
       </c>
       <c r="I13">
-        <v>0.3972397107657614</v>
+        <v>0.009708220854241584</v>
       </c>
       <c r="J13">
-        <v>0.3972397107657614</v>
+        <v>0.009708220854241585</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>53.1169883938852</v>
+        <v>55.51027300000001</v>
       </c>
       <c r="N13">
-        <v>53.1169883938852</v>
+        <v>166.530819</v>
       </c>
       <c r="O13">
-        <v>0.04533225522245957</v>
+        <v>0.043549230010055</v>
       </c>
       <c r="P13">
-        <v>0.04533225522245957</v>
+        <v>0.04354923001005501</v>
       </c>
       <c r="Q13">
-        <v>46778.26622699035</v>
+        <v>1259.750968116095</v>
       </c>
       <c r="R13">
-        <v>46778.26622699035</v>
+        <v>11337.75871304485</v>
       </c>
       <c r="S13">
-        <v>0.01800777195292952</v>
+        <v>0.0004227855429697793</v>
       </c>
       <c r="T13">
-        <v>0.01800777195292952</v>
+        <v>0.0004227855429697795</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>437.056994102845</v>
+        <v>966.8228453333332</v>
       </c>
       <c r="H14">
-        <v>437.056994102845</v>
+        <v>2900.468536</v>
       </c>
       <c r="I14">
-        <v>0.1971424066121462</v>
+        <v>0.4135949372300253</v>
       </c>
       <c r="J14">
-        <v>0.1971424066121462</v>
+        <v>0.4135949372300254</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>8.27821416682553</v>
+        <v>10.45505566666667</v>
       </c>
       <c r="N14">
-        <v>8.27821416682553</v>
+        <v>31.365167</v>
       </c>
       <c r="O14">
-        <v>0.007064973537541828</v>
+        <v>0.008202258778219224</v>
       </c>
       <c r="P14">
-        <v>0.007064973537541828</v>
+        <v>0.008202258778219226</v>
       </c>
       <c r="Q14">
-        <v>3618.051400292354</v>
+        <v>10108.18666776506</v>
       </c>
       <c r="R14">
-        <v>3618.051400292354</v>
+        <v>90973.6800098855</v>
       </c>
       <c r="S14">
-        <v>0.001392805885842124</v>
+        <v>0.003392412704522004</v>
       </c>
       <c r="T14">
-        <v>0.001392805885842124</v>
+        <v>0.003392412704522005</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>437.056994102845</v>
+        <v>966.8228453333332</v>
       </c>
       <c r="H15">
-        <v>437.056994102845</v>
+        <v>2900.468536</v>
       </c>
       <c r="I15">
-        <v>0.1971424066121462</v>
+        <v>0.4135949372300253</v>
       </c>
       <c r="J15">
-        <v>0.1971424066121462</v>
+        <v>0.4135949372300254</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>164.108091289101</v>
+        <v>167.4277343333333</v>
       </c>
       <c r="N15">
-        <v>164.108091289101</v>
+        <v>502.283203</v>
       </c>
       <c r="O15">
-        <v>0.1400566956699796</v>
+        <v>0.1313513430666197</v>
       </c>
       <c r="P15">
-        <v>0.1400566956699796</v>
+        <v>0.1313513430666197</v>
       </c>
       <c r="Q15">
-        <v>71724.58908676976</v>
+        <v>161872.9584958668</v>
       </c>
       <c r="R15">
-        <v>71724.58908676976</v>
+        <v>1456856.626462801</v>
       </c>
       <c r="S15">
-        <v>0.02761111404652473</v>
+        <v>0.05432625049071809</v>
       </c>
       <c r="T15">
-        <v>0.02761111404652473</v>
+        <v>0.05432625049071811</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>437.056994102845</v>
+        <v>966.8228453333332</v>
       </c>
       <c r="H16">
-        <v>437.056994102845</v>
+        <v>2900.468536</v>
       </c>
       <c r="I16">
-        <v>0.1971424066121462</v>
+        <v>0.4135949372300253</v>
       </c>
       <c r="J16">
-        <v>0.1971424066121462</v>
+        <v>0.4135949372300254</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>151.920568160173</v>
+        <v>227.495678</v>
       </c>
       <c r="N16">
-        <v>151.920568160173</v>
+        <v>682.487034</v>
       </c>
       <c r="O16">
-        <v>0.1296553546731359</v>
+        <v>0.1784761823728629</v>
       </c>
       <c r="P16">
-        <v>0.1296553546731359</v>
+        <v>0.1784761823728629</v>
       </c>
       <c r="Q16">
-        <v>66397.94686248159</v>
+        <v>219948.0187049958</v>
       </c>
       <c r="R16">
-        <v>66397.94686248159</v>
+        <v>1979532.168344962</v>
       </c>
       <c r="S16">
-        <v>0.02556056865041337</v>
+        <v>0.07381684544555879</v>
       </c>
       <c r="T16">
-        <v>0.02556056865041337</v>
+        <v>0.07381684544555882</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>437.056994102845</v>
+        <v>966.8228453333332</v>
       </c>
       <c r="H17">
-        <v>437.056994102845</v>
+        <v>2900.468536</v>
       </c>
       <c r="I17">
-        <v>0.1971424066121462</v>
+        <v>0.4135949372300253</v>
       </c>
       <c r="J17">
-        <v>0.1971424066121462</v>
+        <v>0.4135949372300254</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>145.637165001401</v>
+        <v>147.9815903333333</v>
       </c>
       <c r="N17">
-        <v>145.637165001401</v>
+        <v>443.9447709999999</v>
       </c>
       <c r="O17">
-        <v>0.1242928361216916</v>
+        <v>0.1160953453549051</v>
       </c>
       <c r="P17">
-        <v>0.1242928361216916</v>
+        <v>0.1160953453549051</v>
       </c>
       <c r="Q17">
-        <v>63651.74156517239</v>
+        <v>143071.982223025</v>
       </c>
       <c r="R17">
-        <v>63651.74156517239</v>
+        <v>1287647.840007225</v>
       </c>
       <c r="S17">
-        <v>0.02450338883767936</v>
+        <v>0.04801644707476008</v>
       </c>
       <c r="T17">
-        <v>0.02450338883767936</v>
+        <v>0.0480164470747601</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>437.056994102845</v>
+        <v>966.8228453333332</v>
       </c>
       <c r="H18">
-        <v>437.056994102845</v>
+        <v>2900.468536</v>
       </c>
       <c r="I18">
-        <v>0.1971424066121462</v>
+        <v>0.4135949372300253</v>
       </c>
       <c r="J18">
-        <v>0.1971424066121462</v>
+        <v>0.4135949372300254</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>648.665112207224</v>
+        <v>665.7853396666667</v>
       </c>
       <c r="N18">
-        <v>648.665112207224</v>
+        <v>1997.356019</v>
       </c>
       <c r="O18">
-        <v>0.5535978847751916</v>
+        <v>0.5223256404173379</v>
       </c>
       <c r="P18">
-        <v>0.5535978847751916</v>
+        <v>0.522325640417338</v>
       </c>
       <c r="Q18">
-        <v>283503.624120674</v>
+        <v>643696.4764777464</v>
       </c>
       <c r="R18">
-        <v>283503.624120674</v>
+        <v>5793268.288299718</v>
       </c>
       <c r="S18">
-        <v>0.1091376192999749</v>
+        <v>0.2160312404620416</v>
       </c>
       <c r="T18">
-        <v>0.1091376192999749</v>
+        <v>0.2160312404620417</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>437.056994102845</v>
+        <v>966.8228453333332</v>
       </c>
       <c r="H19">
-        <v>437.056994102845</v>
+        <v>2900.468536</v>
       </c>
       <c r="I19">
-        <v>0.1971424066121462</v>
+        <v>0.4135949372300253</v>
       </c>
       <c r="J19">
-        <v>0.1971424066121462</v>
+        <v>0.4135949372300254</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>53.1169883938852</v>
+        <v>55.51027300000001</v>
       </c>
       <c r="N19">
-        <v>53.1169883938852</v>
+        <v>166.530819</v>
       </c>
       <c r="O19">
-        <v>0.04533225522245957</v>
+        <v>0.043549230010055</v>
       </c>
       <c r="P19">
-        <v>0.04533225522245957</v>
+        <v>0.04354923001005501</v>
       </c>
       <c r="Q19">
-        <v>23215.15128322717</v>
+        <v>53668.60008709011</v>
       </c>
       <c r="R19">
-        <v>23215.15128322717</v>
+        <v>483017.400783811</v>
       </c>
       <c r="S19">
-        <v>0.00893690989171171</v>
+        <v>0.01801174105242463</v>
       </c>
       <c r="T19">
-        <v>0.00893690989171171</v>
+        <v>0.01801174105242464</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>826.3828658964979</v>
+        <v>447.0639343333333</v>
       </c>
       <c r="H20">
-        <v>826.3828658964979</v>
+        <v>1341.191803</v>
       </c>
       <c r="I20">
-        <v>0.3727548332690497</v>
+        <v>0.1912484595817072</v>
       </c>
       <c r="J20">
-        <v>0.3727548332690497</v>
+        <v>0.1912484595817072</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>8.27821416682553</v>
+        <v>10.45505566666667</v>
       </c>
       <c r="N20">
-        <v>8.27821416682553</v>
+        <v>31.365167</v>
       </c>
       <c r="O20">
-        <v>0.007064973537541828</v>
+        <v>0.008202258778219224</v>
       </c>
       <c r="P20">
-        <v>0.007064973537541828</v>
+        <v>0.008202258778219226</v>
       </c>
       <c r="Q20">
-        <v>6840.974347686271</v>
+        <v>4674.07832001401</v>
       </c>
       <c r="R20">
-        <v>6840.974347686271</v>
+        <v>42066.7048801261</v>
       </c>
       <c r="S20">
-        <v>0.002633503033036653</v>
+        <v>0.001568669356424962</v>
       </c>
       <c r="T20">
-        <v>0.002633503033036653</v>
+        <v>0.001568669356424963</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>826.3828658964979</v>
+        <v>447.0639343333333</v>
       </c>
       <c r="H21">
-        <v>826.3828658964979</v>
+        <v>1341.191803</v>
       </c>
       <c r="I21">
-        <v>0.3727548332690497</v>
+        <v>0.1912484595817072</v>
       </c>
       <c r="J21">
-        <v>0.3727548332690497</v>
+        <v>0.1912484595817072</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>164.108091289101</v>
+        <v>167.4277343333333</v>
       </c>
       <c r="N21">
-        <v>164.108091289101</v>
+        <v>502.283203</v>
       </c>
       <c r="O21">
-        <v>0.1400566956699796</v>
+        <v>0.1313513430666197</v>
       </c>
       <c r="P21">
-        <v>0.1400566956699796</v>
+        <v>0.1313513430666197</v>
       </c>
       <c r="Q21">
-        <v>135616.1147962914</v>
+        <v>74850.90162757611</v>
       </c>
       <c r="R21">
-        <v>135616.1147962914</v>
+        <v>673658.114648185</v>
       </c>
       <c r="S21">
-        <v>0.0522068102426773</v>
+        <v>0.02512074202547937</v>
       </c>
       <c r="T21">
-        <v>0.0522068102426773</v>
+        <v>0.02512074202547938</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>826.3828658964979</v>
+        <v>447.0639343333333</v>
       </c>
       <c r="H22">
-        <v>826.3828658964979</v>
+        <v>1341.191803</v>
       </c>
       <c r="I22">
-        <v>0.3727548332690497</v>
+        <v>0.1912484595817072</v>
       </c>
       <c r="J22">
-        <v>0.3727548332690497</v>
+        <v>0.1912484595817072</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>151.920568160173</v>
+        <v>227.495678</v>
       </c>
       <c r="N22">
-        <v>151.920568160173</v>
+        <v>682.487034</v>
       </c>
       <c r="O22">
-        <v>0.1296553546731359</v>
+        <v>0.1784761823728629</v>
       </c>
       <c r="P22">
-        <v>0.1296553546731359</v>
+        <v>0.1784761823728629</v>
       </c>
       <c r="Q22">
-        <v>125544.554504828</v>
+        <v>101705.1128505091</v>
       </c>
       <c r="R22">
-        <v>125544.554504828</v>
+        <v>915346.0156545823</v>
       </c>
       <c r="S22">
-        <v>0.04832966011362427</v>
+        <v>0.03413329495083388</v>
       </c>
       <c r="T22">
-        <v>0.04832966011362427</v>
+        <v>0.03413329495083389</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>826.3828658964979</v>
+        <v>447.0639343333333</v>
       </c>
       <c r="H23">
-        <v>826.3828658964979</v>
+        <v>1341.191803</v>
       </c>
       <c r="I23">
-        <v>0.3727548332690497</v>
+        <v>0.1912484595817072</v>
       </c>
       <c r="J23">
-        <v>0.3727548332690497</v>
+        <v>0.1912484595817072</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>145.637165001401</v>
+        <v>147.9815903333333</v>
       </c>
       <c r="N23">
-        <v>145.637165001401</v>
+        <v>443.9447709999999</v>
       </c>
       <c r="O23">
-        <v>0.1242928361216916</v>
+        <v>0.1160953453549051</v>
       </c>
       <c r="P23">
-        <v>0.1242928361216916</v>
+        <v>0.1160953453549051</v>
       </c>
       <c r="Q23">
-        <v>120352.0577948989</v>
+        <v>66157.23198332355</v>
       </c>
       <c r="R23">
-        <v>120352.0577948989</v>
+        <v>595415.087849912</v>
       </c>
       <c r="S23">
-        <v>0.04633075540507846</v>
+        <v>0.02220305596373191</v>
       </c>
       <c r="T23">
-        <v>0.04633075540507846</v>
+        <v>0.02220305596373191</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>826.3828658964979</v>
+        <v>447.0639343333333</v>
       </c>
       <c r="H24">
-        <v>826.3828658964979</v>
+        <v>1341.191803</v>
       </c>
       <c r="I24">
-        <v>0.3727548332690497</v>
+        <v>0.1912484595817072</v>
       </c>
       <c r="J24">
-        <v>0.3727548332690497</v>
+        <v>0.1912484595817072</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>648.665112207224</v>
+        <v>665.7853396666667</v>
       </c>
       <c r="N24">
-        <v>648.665112207224</v>
+        <v>1997.356019</v>
       </c>
       <c r="O24">
-        <v>0.5535978847751916</v>
+        <v>0.5223256404173379</v>
       </c>
       <c r="P24">
-        <v>0.5535978847751916</v>
+        <v>0.522325640417338</v>
       </c>
       <c r="Q24">
-        <v>536045.7344328791</v>
+        <v>297648.6133728347</v>
       </c>
       <c r="R24">
-        <v>536045.7344328791</v>
+        <v>2678837.520355512</v>
       </c>
       <c r="S24">
-        <v>0.2063562872374752</v>
+        <v>0.09989397412984458</v>
       </c>
       <c r="T24">
-        <v>0.2063562872374752</v>
+        <v>0.0998939741298446</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,61 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>826.3828658964979</v>
+        <v>447.0639343333333</v>
       </c>
       <c r="H25">
-        <v>826.3828658964979</v>
+        <v>1341.191803</v>
       </c>
       <c r="I25">
-        <v>0.3727548332690497</v>
+        <v>0.1912484595817072</v>
       </c>
       <c r="J25">
-        <v>0.3727548332690497</v>
+        <v>0.1912484595817072</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>53.1169883938852</v>
+        <v>55.51027300000001</v>
       </c>
       <c r="N25">
-        <v>53.1169883938852</v>
+        <v>166.530819</v>
       </c>
       <c r="O25">
-        <v>0.04533225522245957</v>
+        <v>0.043549230010055</v>
       </c>
       <c r="P25">
-        <v>0.04533225522245957</v>
+        <v>0.04354923001005501</v>
       </c>
       <c r="Q25">
-        <v>43894.96909672987</v>
+        <v>24816.64104329741</v>
       </c>
       <c r="R25">
-        <v>43894.96909672987</v>
+        <v>223349.7693896767</v>
       </c>
       <c r="S25">
-        <v>0.01689781723715792</v>
+        <v>0.008328723155392475</v>
       </c>
       <c r="T25">
-        <v>0.01689781723715792</v>
+        <v>0.008328723155392476</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,61 +2016,61 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>52.0757428876562</v>
+        <v>843.4949546666667</v>
       </c>
       <c r="H26">
-        <v>52.0757428876562</v>
+        <v>2530.484864</v>
       </c>
       <c r="I26">
-        <v>0.02348969909533606</v>
+        <v>0.3608367805054546</v>
       </c>
       <c r="J26">
-        <v>0.02348969909533606</v>
+        <v>0.3608367805054546</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>8.27821416682553</v>
+        <v>10.45505566666667</v>
       </c>
       <c r="N26">
-        <v>8.27821416682553</v>
+        <v>31.365167</v>
       </c>
       <c r="O26">
-        <v>0.007064973537541828</v>
+        <v>0.008202258778219224</v>
       </c>
       <c r="P26">
-        <v>0.007064973537541828</v>
+        <v>0.008202258778219226</v>
       </c>
       <c r="Q26">
-        <v>431.0941525205594</v>
+        <v>8818.786705592476</v>
       </c>
       <c r="R26">
-        <v>431.0941525205594</v>
+        <v>79369.08035033228</v>
       </c>
       <c r="S26">
-        <v>0.0001659541025133695</v>
+        <v>0.002959676650405228</v>
       </c>
       <c r="T26">
-        <v>0.0001659541025133695</v>
+        <v>0.002959676650405229</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,61 +2078,61 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>52.0757428876562</v>
+        <v>843.4949546666667</v>
       </c>
       <c r="H27">
-        <v>52.0757428876562</v>
+        <v>2530.484864</v>
       </c>
       <c r="I27">
-        <v>0.02348969909533606</v>
+        <v>0.3608367805054546</v>
       </c>
       <c r="J27">
-        <v>0.02348969909533606</v>
+        <v>0.3608367805054546</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>164.108091289101</v>
+        <v>167.4277343333333</v>
       </c>
       <c r="N27">
-        <v>164.108091289101</v>
+        <v>502.283203</v>
       </c>
       <c r="O27">
-        <v>0.1400566956699796</v>
+        <v>0.1313513430666197</v>
       </c>
       <c r="P27">
-        <v>0.1400566956699796</v>
+        <v>0.1313513430666197</v>
       </c>
       <c r="Q27">
-        <v>8546.050767755236</v>
+        <v>141224.4491814377</v>
       </c>
       <c r="R27">
-        <v>8546.050767755236</v>
+        <v>1271020.04263294</v>
       </c>
       <c r="S27">
-        <v>0.003289889637574879</v>
+        <v>0.04739639574722652</v>
       </c>
       <c r="T27">
-        <v>0.003289889637574879</v>
+        <v>0.04739639574722653</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,61 +2140,61 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>52.0757428876562</v>
+        <v>843.4949546666667</v>
       </c>
       <c r="H28">
-        <v>52.0757428876562</v>
+        <v>2530.484864</v>
       </c>
       <c r="I28">
-        <v>0.02348969909533606</v>
+        <v>0.3608367805054546</v>
       </c>
       <c r="J28">
-        <v>0.02348969909533606</v>
+        <v>0.3608367805054546</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>151.920568160173</v>
+        <v>227.495678</v>
       </c>
       <c r="N28">
-        <v>151.920568160173</v>
+        <v>682.487034</v>
       </c>
       <c r="O28">
-        <v>0.1296553546731359</v>
+        <v>0.1784761823728629</v>
       </c>
       <c r="P28">
-        <v>0.1296553546731359</v>
+        <v>0.1784761823728629</v>
       </c>
       <c r="Q28">
-        <v>7911.376446855817</v>
+        <v>191891.4566014726</v>
       </c>
       <c r="R28">
-        <v>7911.376446855817</v>
+        <v>1727023.109413253</v>
       </c>
       <c r="S28">
-        <v>0.003045565267371036</v>
+        <v>0.06440077104432822</v>
       </c>
       <c r="T28">
-        <v>0.003045565267371036</v>
+        <v>0.06440077104432824</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,61 +2202,61 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>52.0757428876562</v>
+        <v>843.4949546666667</v>
       </c>
       <c r="H29">
-        <v>52.0757428876562</v>
+        <v>2530.484864</v>
       </c>
       <c r="I29">
-        <v>0.02348969909533606</v>
+        <v>0.3608367805054546</v>
       </c>
       <c r="J29">
-        <v>0.02348969909533606</v>
+        <v>0.3608367805054546</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>145.637165001401</v>
+        <v>147.9815903333333</v>
       </c>
       <c r="N29">
-        <v>145.637165001401</v>
+        <v>443.9447709999999</v>
       </c>
       <c r="O29">
-        <v>0.1242928361216916</v>
+        <v>0.1160953453549051</v>
       </c>
       <c r="P29">
-        <v>0.1242928361216916</v>
+        <v>0.1160953453549051</v>
       </c>
       <c r="Q29">
-        <v>7584.16355950012</v>
+        <v>124821.7248297162</v>
       </c>
       <c r="R29">
-        <v>7584.16355950012</v>
+        <v>1123395.523467446</v>
       </c>
       <c r="S29">
-        <v>0.002919601320204451</v>
+        <v>0.04189147064953284</v>
       </c>
       <c r="T29">
-        <v>0.002919601320204451</v>
+        <v>0.04189147064953285</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,61 +2264,61 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>52.0757428876562</v>
+        <v>843.4949546666667</v>
       </c>
       <c r="H30">
-        <v>52.0757428876562</v>
+        <v>2530.484864</v>
       </c>
       <c r="I30">
-        <v>0.02348969909533606</v>
+        <v>0.3608367805054546</v>
       </c>
       <c r="J30">
-        <v>0.02348969909533606</v>
+        <v>0.3608367805054546</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>648.665112207224</v>
+        <v>665.7853396666667</v>
       </c>
       <c r="N30">
-        <v>648.665112207224</v>
+        <v>1997.356019</v>
       </c>
       <c r="O30">
-        <v>0.5535978847751916</v>
+        <v>0.5223256404173379</v>
       </c>
       <c r="P30">
-        <v>0.5535978847751916</v>
+        <v>0.522325640417338</v>
       </c>
       <c r="Q30">
-        <v>33779.71760349605</v>
+        <v>561586.5748998662</v>
       </c>
       <c r="R30">
-        <v>33779.71760349605</v>
+        <v>5054279.174098796</v>
       </c>
       <c r="S30">
-        <v>0.01300384773318377</v>
+        <v>0.1884743024636419</v>
       </c>
       <c r="T30">
-        <v>0.01300384773318377</v>
+        <v>0.188474302463642</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,61 +2326,433 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>843.4949546666667</v>
+      </c>
+      <c r="H31">
+        <v>2530.484864</v>
+      </c>
+      <c r="I31">
+        <v>0.3608367805054546</v>
+      </c>
+      <c r="J31">
+        <v>0.3608367805054546</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>55.51027300000001</v>
+      </c>
+      <c r="N31">
+        <v>166.530819</v>
+      </c>
+      <c r="O31">
+        <v>0.043549230010055</v>
+      </c>
+      <c r="P31">
+        <v>0.04354923001005501</v>
+      </c>
+      <c r="Q31">
+        <v>46822.63520766929</v>
+      </c>
+      <c r="R31">
+        <v>421403.7168690236</v>
+      </c>
+      <c r="S31">
+        <v>0.01571416395031977</v>
+      </c>
+      <c r="T31">
+        <v>0.01571416395031978</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>56.118235</v>
+      </c>
+      <c r="H32">
+        <v>168.354705</v>
+      </c>
+      <c r="I32">
+        <v>0.0240066916026199</v>
+      </c>
+      <c r="J32">
+        <v>0.0240066916026199</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>10.45505566666667</v>
+      </c>
+      <c r="N32">
+        <v>31.365167</v>
+      </c>
+      <c r="O32">
+        <v>0.008202258778219224</v>
+      </c>
+      <c r="P32">
+        <v>0.008202258778219226</v>
+      </c>
+      <c r="Q32">
+        <v>586.7192708400817</v>
+      </c>
+      <c r="R32">
+        <v>5280.473437560735</v>
+      </c>
+      <c r="S32">
+        <v>0.0001969090969335908</v>
+      </c>
+      <c r="T32">
+        <v>0.0001969090969335909</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>56.118235</v>
+      </c>
+      <c r="H33">
+        <v>168.354705</v>
+      </c>
+      <c r="I33">
+        <v>0.0240066916026199</v>
+      </c>
+      <c r="J33">
+        <v>0.0240066916026199</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>167.4277343333333</v>
+      </c>
+      <c r="N33">
+        <v>502.283203</v>
+      </c>
+      <c r="O33">
+        <v>0.1313513430666197</v>
+      </c>
+      <c r="P33">
+        <v>0.1313513430666197</v>
+      </c>
+      <c r="Q33">
+        <v>9395.748940835569</v>
+      </c>
+      <c r="R33">
+        <v>84561.74046752011</v>
+      </c>
+      <c r="S33">
+        <v>0.003153311184590264</v>
+      </c>
+      <c r="T33">
+        <v>0.003153311184590266</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>56.118235</v>
+      </c>
+      <c r="H34">
+        <v>168.354705</v>
+      </c>
+      <c r="I34">
+        <v>0.0240066916026199</v>
+      </c>
+      <c r="J34">
+        <v>0.0240066916026199</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>227.495678</v>
+      </c>
+      <c r="N34">
+        <v>682.487034</v>
+      </c>
+      <c r="O34">
+        <v>0.1784761823728629</v>
+      </c>
+      <c r="P34">
+        <v>0.1784761823728629</v>
+      </c>
+      <c r="Q34">
+        <v>12766.65591948833</v>
+      </c>
+      <c r="R34">
+        <v>114899.903275395</v>
+      </c>
+      <c r="S34">
+        <v>0.004284622668638265</v>
+      </c>
+      <c r="T34">
+        <v>0.004284622668638267</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>56.118235</v>
+      </c>
+      <c r="H35">
+        <v>168.354705</v>
+      </c>
+      <c r="I35">
+        <v>0.0240066916026199</v>
+      </c>
+      <c r="J35">
+        <v>0.0240066916026199</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>147.9815903333333</v>
+      </c>
+      <c r="N35">
+        <v>443.9447709999999</v>
+      </c>
+      <c r="O35">
+        <v>0.1160953453549051</v>
+      </c>
+      <c r="P35">
+        <v>0.1160953453549051</v>
+      </c>
+      <c r="Q35">
+        <v>8304.465661999728</v>
+      </c>
+      <c r="R35">
+        <v>74740.19095799755</v>
+      </c>
+      <c r="S35">
+        <v>0.002787065152434857</v>
+      </c>
+      <c r="T35">
+        <v>0.002787065152434858</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>52.0757428876562</v>
-      </c>
-      <c r="H31">
-        <v>52.0757428876562</v>
-      </c>
-      <c r="I31">
-        <v>0.02348969909533606</v>
-      </c>
-      <c r="J31">
-        <v>0.02348969909533606</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>53.1169883938852</v>
-      </c>
-      <c r="N31">
-        <v>53.1169883938852</v>
-      </c>
-      <c r="O31">
-        <v>0.04533225522245957</v>
-      </c>
-      <c r="P31">
-        <v>0.04533225522245957</v>
-      </c>
-      <c r="Q31">
-        <v>2766.106630566584</v>
-      </c>
-      <c r="R31">
-        <v>2766.106630566584</v>
-      </c>
-      <c r="S31">
-        <v>0.001064841034488552</v>
-      </c>
-      <c r="T31">
-        <v>0.001064841034488552</v>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>56.118235</v>
+      </c>
+      <c r="H36">
+        <v>168.354705</v>
+      </c>
+      <c r="I36">
+        <v>0.0240066916026199</v>
+      </c>
+      <c r="J36">
+        <v>0.0240066916026199</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>665.7853396666667</v>
+      </c>
+      <c r="N36">
+        <v>1997.356019</v>
+      </c>
+      <c r="O36">
+        <v>0.5223256404173379</v>
+      </c>
+      <c r="P36">
+        <v>0.522325640417338</v>
+      </c>
+      <c r="Q36">
+        <v>37362.69815096882</v>
+      </c>
+      <c r="R36">
+        <v>336264.2833587194</v>
+      </c>
+      <c r="S36">
+        <v>0.01253931056563997</v>
+      </c>
+      <c r="T36">
+        <v>0.01253931056563997</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>56.118235</v>
+      </c>
+      <c r="H37">
+        <v>168.354705</v>
+      </c>
+      <c r="I37">
+        <v>0.0240066916026199</v>
+      </c>
+      <c r="J37">
+        <v>0.0240066916026199</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>55.51027300000001</v>
+      </c>
+      <c r="N37">
+        <v>166.530819</v>
+      </c>
+      <c r="O37">
+        <v>0.043549230010055</v>
+      </c>
+      <c r="P37">
+        <v>0.04354923001005501</v>
+      </c>
+      <c r="Q37">
+        <v>3115.138545128155</v>
+      </c>
+      <c r="R37">
+        <v>28036.2469061534</v>
+      </c>
+      <c r="S37">
+        <v>0.00104547293438295</v>
+      </c>
+      <c r="T37">
+        <v>0.00104547293438295</v>
       </c>
     </row>
   </sheetData>
